--- a/app/data/2023-07-21/CLIENTESDUSNEI0012023-07-21.xlsx
+++ b/app/data/2023-07-21/CLIENTESDUSNEI0012023-07-21.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4245</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>SANTO ANTôNIO DO CAIUá</t>
@@ -531,11 +527,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3936</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>ASTORGA</t>
@@ -578,11 +570,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4038</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>GUAíRA</t>
@@ -625,11 +613,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4038</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>GUAíRA</t>
@@ -672,11 +656,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4115</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>MARIALVA</t>
@@ -719,11 +699,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4100</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>LOBATO</t>
@@ -766,11 +742,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4119</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>MARINGá</t>
@@ -813,11 +785,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4119</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>MARINGá</t>
@@ -860,11 +828,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4038</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>GUAíRA</t>
@@ -907,11 +871,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3936</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>ASTORGA</t>
@@ -954,11 +914,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4038</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>GUAíRA</t>
@@ -1001,11 +957,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4038</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>GUAíRA</t>
@@ -1048,11 +1000,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4038</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>GUAíRA</t>
@@ -1095,11 +1043,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4038</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>GUAíRA</t>
@@ -1142,11 +1086,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4165</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>PARANAVAí</t>
@@ -1189,11 +1129,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4181</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>PITANGA</t>
@@ -1236,11 +1172,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4297</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>UMUARAMA</t>
@@ -1283,11 +1215,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4286</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>TERRA ROXA</t>
@@ -1330,11 +1258,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4156</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>PAIçANDU</t>
@@ -1377,11 +1301,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4225</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>SABáUDIA</t>
@@ -1424,11 +1344,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4165</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>PARANAVAí</t>
@@ -1471,11 +1387,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4160</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>PALOTINA</t>
@@ -1518,11 +1430,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4038</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>GUAíRA</t>
@@ -1565,11 +1473,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>4161</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>PARAíSO DO NORTE</t>
@@ -1612,11 +1516,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3971</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>CAMPO MOURãO</t>
@@ -1659,11 +1559,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4119</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>MARINGá</t>
@@ -1706,11 +1602,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4064</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>IRETAMA</t>
@@ -1753,11 +1645,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4192</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>PRADO FERREIRA</t>
@@ -1800,11 +1688,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4270</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>SARANDI</t>
@@ -1847,11 +1731,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4165</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>PARANAVAí</t>
@@ -1894,11 +1774,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4119</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>MARINGá</t>
@@ -1941,11 +1817,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>4165</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>PARANAVAí</t>
@@ -1988,11 +1860,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4119</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>MARINGá</t>
@@ -2035,11 +1903,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4280</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>TAPEJARA</t>
@@ -2082,11 +1946,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4073</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>IVAIPORã</t>
@@ -2108,6 +1968,49 @@
         </is>
       </c>
       <c r="I36" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>76183</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>WALTER FRIOS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SARANDI</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>87111120</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Mgá-Ademilson</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
